--- a/SpreadSheets/Polygon/Dynamic/0050_Static_Polygon.xlsx
+++ b/SpreadSheets/Polygon/Dynamic/0050_Static_Polygon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17145" windowHeight="9825" tabRatio="973" activeTab="10"/>
+    <workbookView windowWidth="24345" windowHeight="12525" tabRatio="973" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ColEnter" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,16 +93,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,7 +109,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,31 +131,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,39 +185,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,17 +207,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +246,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,31 +300,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,19 +366,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,103 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,17 +440,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,8 +478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +499,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -509,31 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,13 +542,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,130 +560,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -796,7 +796,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" altLang="en-US"/>
-              <a:t>- 50 Objetos Pre-Runtime</a:t>
+              <a:t>- 50 Objetos Pre-Runtime Polygon</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR" altLang="en-US"/>
           </a:p>
@@ -5015,7 +5015,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" altLang="en-US"/>
-              <a:t>- 50 Objetos Pre-Runtime</a:t>
+              <a:t>- 50 Objetos Pre-Runtime Polygon</a:t>
             </a:r>
             <a:r>
               <a:t> - Sem Física</a:t>
@@ -8341,7 +8341,7 @@
               <a:t>Pre-</a:t>
             </a:r>
             <a:r>
-              <a:t>Runtime</a:t>
+              <a:t>Runtime Polygon</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12566,7 +12566,7 @@
               <a:t>Pre-</a:t>
             </a:r>
             <a:r>
-              <a:t>Runtime - Sem Física</a:t>
+              <a:t>Runtime Polygon - Sem Física</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -15849,7 +15849,7 @@
               <a:t>Pre-</a:t>
             </a:r>
             <a:r>
-              <a:t>Runtime</a:t>
+              <a:t>Runtime Polygon</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -20071,7 +20071,7 @@
               <a:t>Pre-</a:t>
             </a:r>
             <a:r>
-              <a:t>Runtime - Sem Física</a:t>
+              <a:t>Runtime Polygon - Sem Física</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -23351,7 +23351,7 @@
               <a:t>Pre-</a:t>
             </a:r>
             <a:r>
-              <a:t>Runtime</a:t>
+              <a:t>Runtime Polygon</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -27573,7 +27573,7 @@
               <a:t>Pre-</a:t>
             </a:r>
             <a:r>
-              <a:t>Runtime+              <a:t>Runtime Polygon  - Sem Física</a:t>
             </a:r>
           </a:p>
@@ -37230,15 +37230,12 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11"/>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11"/>
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11"/>
       <c r="H11">
         <v>10</v>
       </c>
@@ -37250,15 +37247,12 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21"/>
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21"/>
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21"/>
       <c r="H21">
         <v>20</v>
       </c>
@@ -37270,15 +37264,12 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31"/>
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31"/>
       <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31"/>
       <c r="H31">
         <v>30</v>
       </c>
@@ -37290,15 +37281,12 @@
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41"/>
       <c r="D41">
         <v>40</v>
       </c>
-      <c r="E41"/>
       <c r="F41">
         <v>40</v>
       </c>
-      <c r="G41"/>
       <c r="H41">
         <v>40</v>
       </c>
@@ -37310,7 +37298,6 @@
       <c r="B51">
         <v>50</v>
       </c>
-      <c r="C51"/>
       <c r="D51">
         <v>50</v>
       </c>
@@ -40326,8 +40313,6 @@
       <c r="D40">
         <v>0.33</v>
       </c>
-      <c r="E40"/>
-      <c r="F40"/>
       <c r="G40">
         <v>2.98</v>
       </c>
@@ -44348,8 +44333,8 @@
   <sheetPr/>
   <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -44564,8 +44549,6 @@
       <c r="D40">
         <v>32</v>
       </c>
-      <c r="E40"/>
-      <c r="F40"/>
       <c r="G40">
         <v>0</v>
       </c>
@@ -48648,15 +48631,12 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21"/>
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21"/>
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21"/>
       <c r="H21">
         <v>20</v>
       </c>
@@ -48668,15 +48648,12 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31"/>
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31"/>
       <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31"/>
       <c r="H31">
         <v>30</v>
       </c>
@@ -48688,14 +48665,12 @@
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41"/>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="F41">
         <v>40</v>
       </c>
-      <c r="G41"/>
       <c r="H41">
         <v>40</v>
       </c>
@@ -48713,7 +48688,6 @@
       <c r="F51">
         <v>50</v>
       </c>
-      <c r="G51"/>
       <c r="H51">
         <v>50</v>
       </c>
@@ -51394,15 +51368,12 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11"/>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11"/>
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11"/>
       <c r="H11">
         <v>10</v>
       </c>
@@ -51414,15 +51385,12 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21"/>
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21"/>
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21"/>
       <c r="H21">
         <v>20</v>
       </c>
@@ -51434,15 +51402,12 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31"/>
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31"/>
       <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31"/>
       <c r="H31">
         <v>30</v>
       </c>
@@ -51454,14 +51419,12 @@
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41"/>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="F41">
         <v>40</v>
       </c>
-      <c r="G41"/>
       <c r="H41">
         <v>40</v>
       </c>
@@ -51479,7 +51442,6 @@
       <c r="F51">
         <v>50</v>
       </c>
-      <c r="G51"/>
       <c r="H51">
         <v>50</v>
       </c>
@@ -55206,15 +55168,12 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31"/>
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31"/>
       <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31"/>
       <c r="H31">
         <v>30</v>
       </c>
@@ -55240,15 +55199,12 @@
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41"/>
       <c r="D41">
         <v>40</v>
       </c>
-      <c r="E41"/>
       <c r="F41">
         <v>40</v>
       </c>
-      <c r="G41"/>
       <c r="H41">
         <v>40</v>
       </c>
@@ -56492,7 +56448,6 @@
       <c r="D41">
         <v>40</v>
       </c>
-      <c r="E41"/>
       <c r="F41">
         <v>40</v>
       </c>
@@ -56507,7 +56462,6 @@
       <c r="B51">
         <v>50</v>
       </c>
-      <c r="C51"/>
       <c r="D51">
         <v>50</v>
       </c>
@@ -57602,15 +57556,12 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31"/>
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31"/>
       <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31"/>
       <c r="H31">
         <v>30</v>
       </c>
@@ -57704,15 +57655,12 @@
       <c r="C46" s="2">
         <v>0</v>
       </c>
-      <c r="D46"/>
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46"/>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46"/>
       <c r="I46">
         <v>0</v>
       </c>
@@ -62127,11 +62075,9 @@
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31"/>
       <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31"/>
       <c r="H31">
         <v>30</v>
       </c>
@@ -62351,15 +62297,12 @@
       <c r="C46" s="2">
         <v>0.195</v>
       </c>
-      <c r="D46"/>
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46"/>
       <c r="G46">
         <v>0.35</v>
       </c>
-      <c r="H46"/>
       <c r="I46">
         <v>0</v>
       </c>
@@ -66562,8 +66505,6 @@
       <c r="D40" s="2">
         <v>0.024</v>
       </c>
-      <c r="E40"/>
-      <c r="F40"/>
       <c r="G40" s="2">
         <v>0.023</v>
       </c>
@@ -66628,7 +66569,6 @@
       <c r="D48" s="2">
         <v>0</v>
       </c>
-      <c r="E48"/>
       <c r="F48" s="2">
         <v>0</v>
       </c>
@@ -66640,7 +66580,6 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49"/>
       <c r="F49" s="2">
         <v>0</v>
       </c>
@@ -70650,8 +70589,8 @@
   <sheetPr/>
   <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -70866,8 +70805,6 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="E40"/>
-      <c r="F40"/>
       <c r="G40">
         <v>1</v>
       </c>
@@ -70932,7 +70869,6 @@
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48"/>
       <c r="F48">
         <v>2</v>
       </c>
@@ -70944,7 +70880,6 @@
       <c r="D49">
         <v>2</v>
       </c>
-      <c r="E49"/>
       <c r="F49">
         <v>2</v>
       </c>
